--- a/ONCHO/Breeding Site Survey/Guinnée Conakry/2._Communities_Questions_v5.xlsx
+++ b/ONCHO/Breeding Site Survey/Guinnée Conakry/2._Communities_Questions_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Guinnée Conakry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F316D55F-9939-446E-B0FF-E31FAC725BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682571A3-720F-46ED-AC76-F6A313E76D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,10 +452,10 @@
     <t>mois</t>
   </si>
   <si>
-    <t>select_one mois</t>
-  </si>
-  <si>
     <t>2. Enquête Entomologique d'ONCHO - Questionnaire pour la communauté V2</t>
+  </si>
+  <si>
+    <t>select_multiple mois</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>84</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
